--- a/biology/Zoologie/Boloria_alberta/Boloria_alberta.xlsx
+++ b/biology/Zoologie/Boloria_alberta/Boloria_alberta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Boloria alberta est une espèce de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Heliconiinae.
 </t>
@@ -511,15 +523,14 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Boloria alberta a été décrite par Edwards en 1890.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce Boloria alberta a été décrite par Edwards en 1890.
 Synonymes :
 Argynnis alberta Edwards, 1890 — protonyme
-Clossiana alberta (Edwards, 1890)[1].
-Noms vernaculaires
-Boloria alberta se nomme Alberta Fritillary ou Alberta Alpine Fritillary[1].
-</t>
+Clossiana alberta (Edwards, 1890).</t>
         </is>
       </c>
     </row>
@@ -544,13 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">C'est un papillon au dessus d'un orange jaunâtre assez terne orné de dessins de couleur marron[2].
-Le revers, plus clair, possède une ornementation semblable.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria alberta se nomme Alberta Fritillary ou Alberta Alpine Fritillary.
 </t>
         </is>
       </c>
@@ -576,16 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il hiverne à l'état de chenille les deux années consécutives nécessaires à son développement
-Il vole en une génération sur une courte période en juillet août, en plus grand nombre les années paires[3],[2].
-Plantes hôtes
-Ses plantes hôtes sont Dryas octopetala, Dryas octopetala, Dryas integrifolia[1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon au dessus d'un orange jaunâtre assez terne orné de dessins de couleur marron.
+Le revers, plus clair, possède une ornementation semblable.
 </t>
         </is>
       </c>
@@ -611,17 +626,164 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il hiverne à l'état de chenille les deux années consécutives nécessaires à son développement
+Il vole en une génération sur une courte période en juillet août, en plus grand nombre les années paires,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont Dryas octopetala, Dryas octopetala, Dryas integrifolia.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Boloria alberta est présent en Asie dans la péninsule tchouktche et dans le Nord-Ouest de l'Amérique du Nord, en Colombie-Britannique, Alberta, dans l'État de Washington et au Montana[1]
-,[4].
-Biotope
-C'est un papillon des zones d'éboulis en altitude dans la montagne.
-Protection
-Pas de statut de protection particulier.
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Boloria alberta est présent en Asie dans la péninsule tchouktche et dans le Nord-Ouest de l'Amérique du Nord, en Colombie-Britannique, Alberta, dans l'État de Washington et au Montana
+,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un papillon des zones d'éboulis en altitude dans la montagne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Boloria_alberta</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
